--- a/Data/Search/k_fold_results_2HL_hn-e.xlsx
+++ b/Data/Search/k_fold_results_2HL_hn-e.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\Data\Search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129E7BB4-0878-427F-A069-5D0EF0645002}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26254F6-4887-4549-9259-714D0F53ECDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>2_5-3_15: 0.006414650067675252</t>
   </si>
@@ -150,13 +150,25 @@
   </si>
   <si>
     <t>2_20-12_600: 0.06669233159873812</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20-12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,9 +651,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -698,6 +719,1073 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="20"/>
+      <c:rotY val="300"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="40"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7908873750331772E-2"/>
+          <c:y val="2.7465667915106119E-2"/>
+          <c:w val="0.87045433365773095"/>
+          <c:h val="0.87914476982512035"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v> 5-3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>50</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>150</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>200</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>300</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>400</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>500</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>600</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'k_fold_results_2HL_hn-e'!$G$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.41465006767525E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5828222444881696E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4137370263318404E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.81514622634457E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0134024697835898E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3352530400154206E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8225961045100007E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2684386914268E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6582394157364799E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4015121142996199E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F52A-4803-BC98-06DDD1A5043C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v> 10-6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>50</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>150</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>200</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>300</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>400</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>500</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>600</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'k_fold_results_2HL_hn-e'!$G$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.6957622949696997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0738356673736299E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0722739808648602E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6926052979502399E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4770291179060596E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4586729816636101E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.31619329125338E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2837928957742697E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.56304623488991E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5849415219055101E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F52A-4803-BC98-06DDD1A5043C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v> 15-9</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>50</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>150</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>200</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>300</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>400</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>500</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>600</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'k_fold_results_2HL_hn-e'!$G$7:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.4123420419408003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9484333398456797E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3874501968797497E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2390673736096E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.07073375154956E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.86949173238411E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5592144793562002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5555566671339899E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3860362175358797E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7731043302139302E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F52A-4803-BC98-06DDD1A5043C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v> 20-12</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>50</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>150</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>200</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>300</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>400</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>500</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>600</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'k_fold_results_2HL_hn-e'!$G$8:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.3113952515204199E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4824034457027198E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7931886352408802E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.40498779104716E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2428484469956803E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3474515888208899E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1716838645645698E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5252073601221002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.4977451124622698E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6692331598738094E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F52A-4803-BC98-06DDD1A5043C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="584907344"/>
+        <c:axId val="645949712"/>
+        <c:axId val="450827024"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="584907344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>EPOCHS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.71993834283645575"/>
+              <c:y val="0.70913403060266123"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="645949712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="645949712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average MSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584907344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="450827024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>Hidden Neurons</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.2728275183274505"/>
+              <c:y val="0.81027593358440364"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="645949712"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1231EA-5BE8-4384-86B3-D16872927FFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -997,218 +2085,382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="F4" s="2"/>
+      <c r="G4" s="3">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3">
+        <v>50</v>
+      </c>
+      <c r="J4" s="3">
+        <v>100</v>
+      </c>
+      <c r="K4" s="3">
+        <v>150</v>
+      </c>
+      <c r="L4" s="3">
+        <v>200</v>
+      </c>
+      <c r="M4" s="3">
+        <v>300</v>
+      </c>
+      <c r="N4" s="3">
+        <v>400</v>
+      </c>
+      <c r="O4" s="3">
+        <v>500</v>
+      </c>
+      <c r="P4" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="F5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>6.41465006767525E-3</v>
+      </c>
+      <c r="H5">
+        <v>4.5828222444881696E-3</v>
+      </c>
+      <c r="I5">
+        <v>4.4137370263318404E-3</v>
+      </c>
+      <c r="J5">
+        <v>5.81514622634457E-3</v>
+      </c>
+      <c r="K5">
+        <v>7.0134024697835898E-3</v>
+      </c>
+      <c r="L5">
+        <v>8.3352530400154206E-3</v>
+      </c>
+      <c r="M5">
+        <v>7.8225961045100007E-3</v>
+      </c>
+      <c r="N5">
+        <v>1.2684386914268E-2</v>
+      </c>
+      <c r="O5">
+        <v>1.6582394157364799E-2</v>
+      </c>
+      <c r="P5">
+        <v>2.4015121142996199E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="F6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6">
+        <v>4.6957622949696997E-3</v>
+      </c>
+      <c r="H6">
+        <v>4.0738356673736299E-3</v>
+      </c>
+      <c r="I6">
+        <v>5.0722739808648602E-3</v>
+      </c>
+      <c r="J6">
+        <v>7.6926052979502399E-3</v>
+      </c>
+      <c r="K6">
+        <v>9.4770291179060596E-3</v>
+      </c>
+      <c r="L6">
+        <v>2.4586729816636101E-2</v>
+      </c>
+      <c r="M6">
+        <v>1.31619329125338E-2</v>
+      </c>
+      <c r="N6">
+        <v>5.2837928957742697E-2</v>
+      </c>
+      <c r="O6">
+        <v>2.56304623488991E-2</v>
+      </c>
+      <c r="P6">
+        <v>2.5849415219055101E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="F7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7">
+        <v>4.4123420419408003E-3</v>
+      </c>
+      <c r="H7">
+        <v>3.9484333398456797E-3</v>
+      </c>
+      <c r="I7">
+        <v>7.3874501968797497E-3</v>
+      </c>
+      <c r="J7">
+        <v>1.2390673736096E-2</v>
+      </c>
+      <c r="K7">
+        <v>2.07073375154956E-2</v>
+      </c>
+      <c r="L7">
+        <v>2.86949173238411E-2</v>
+      </c>
+      <c r="M7">
+        <v>4.5592144793562002E-2</v>
+      </c>
+      <c r="N7">
+        <v>4.5555566671339899E-2</v>
+      </c>
+      <c r="O7">
+        <v>4.3860362175358797E-2</v>
+      </c>
+      <c r="P7">
+        <v>5.7731043302139302E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="F8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8">
+        <v>4.3113952515204199E-3</v>
+      </c>
+      <c r="H8">
+        <v>4.4824034457027198E-3</v>
+      </c>
+      <c r="I8">
+        <v>5.7931886352408802E-3</v>
+      </c>
+      <c r="J8">
+        <v>1.40498779104716E-2</v>
+      </c>
+      <c r="K8">
+        <v>3.2428484469956803E-2</v>
+      </c>
+      <c r="L8">
+        <v>3.3474515888208899E-2</v>
+      </c>
+      <c r="M8">
+        <v>5.1716838645645698E-2</v>
+      </c>
+      <c r="N8">
+        <v>5.5252073601221002E-2</v>
+      </c>
+      <c r="O8">
+        <v>5.4977451124622698E-2</v>
+      </c>
+      <c r="P8">
+        <v>6.6692331598738094E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>